--- a/Отчеты в заповедник/Reports_Generator/Topics for reports.xlsx
+++ b/Отчеты в заповедник/Reports_Generator/Topics for reports.xlsx
@@ -424,6 +424,9 @@
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5" s="2">
+        <v>45185.1547337963</v>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Обработка фиксированных проб, собранных во время полевого сезона.</t>
@@ -434,9 +437,12 @@
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6" s="2">
+        <v>45193.71005787037</v>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Обработка фиксированных проб, собранных во время полевого сезона. Подготовка вебинара «Литературное программирование».</t>
+          <t>Обработка фиксированных проб, собранных во время полевого сезона.</t>
         </is>
       </c>
     </row>

--- a/Отчеты в заповедник/Reports_Generator/Topics for reports.xlsx
+++ b/Отчеты в заповедник/Reports_Generator/Topics for reports.xlsx
@@ -450,6 +450,9 @@
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7" s="2">
+        <v>45200.8380787037</v>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Обработка фиксированных проб, собранных во время полевого сезона. Подготовка вебинара «Литературное программирование».</t>
@@ -460,9 +463,12 @@
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8" s="2">
+        <v>45208.68638888889</v>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Обработка фиксированных проб, собранных во время полевого сезона. Подготовка вебинара «Литературное программирование».</t>
+          <t>Обработка фиксированных проб, собранных во время полевого сезона. Подготовка матриалов к вебинару «Литературное программирование».</t>
         </is>
       </c>
     </row>
@@ -470,9 +476,12 @@
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9" s="2">
+        <v>45253.64645833333</v>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Обработка фиксированных проб, собранных во время полевого сезона.</t>
+          <t>Подготовка матриалов к вебинару «Литературное программирование». Обработка фиксированных проб, собранных во время полевого сезона.</t>
         </is>
       </c>
     </row>
@@ -480,9 +489,12 @@
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10" s="2">
+        <v>45237.31696759259</v>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Обработка фотографического материала. Набивка баз данных. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.</t>
+          <t>Подготовка матриалов к вебинару «Литературное программирование». Обработка фотографического материала. Набивка баз данных. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.</t>
         </is>
       </c>
     </row>
@@ -490,6 +502,9 @@
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11" s="2">
+        <v>45243.46608796297</v>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>Обработка фотографического материала. Набивка баз данных.</t>
@@ -499,6 +514,9 @@
     <row r="12">
       <c r="A12">
         <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45250.25143518519</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>

--- a/Отчеты в заповедник/Reports_Generator/Topics for reports.xlsx
+++ b/Отчеты в заповедник/Reports_Generator/Topics for reports.xlsx
@@ -528,6 +528,9 @@
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13" s="2">
+        <v>45261.5518287037</v>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>Обработка фотографического материала. Набивка баз данных.</t>

--- a/Отчеты в заповедник/Reports_Generator/Topics for reports.xlsx
+++ b/Отчеты в заповедник/Reports_Generator/Topics for reports.xlsx
@@ -541,9 +541,12 @@
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14" s="2">
+        <v>45270.15739583333</v>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Обработка фотографического материала. Набивка баз данных. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.</t>
+          <t>Обработка фотографического материала. Набивка баз данных. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга. Подготовка матриалов к вебинару «Литературное программирование».</t>
         </is>
       </c>
     </row>
@@ -553,7 +556,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Обработка фотографического материала. Набивка баз данных.</t>
+          <t>Обработка фотографического материала. Набивка баз данных. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.  Подготовка матриалов к вебинару «Литературное программирование».</t>
         </is>
       </c>
     </row>
@@ -563,7 +566,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Обработка фотографического материала. Набивка баз данных. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.</t>
+          <t>Обработка фотографического материала. Набивка баз данных. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.  Подготовка матриалов к вебинару «Литературное программирование».</t>
         </is>
       </c>
     </row>
@@ -573,7 +576,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Набивка баз данных. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.</t>
+          <t>Набивка баз данных. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга. Работа над публикацией.</t>
         </is>
       </c>
     </row>
@@ -583,7 +586,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Набивка баз данных. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.</t>
+          <t>Набивка баз данных. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.Работа над публикацией.</t>
         </is>
       </c>
     </row>

--- a/Отчеты в заповедник/Reports_Generator/Topics for reports.xlsx
+++ b/Отчеты в заповедник/Reports_Generator/Topics for reports.xlsx
@@ -554,9 +554,12 @@
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15" s="2">
+        <v>45276.37570601852</v>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Обработка фотографического материала. Набивка баз данных. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.  Подготовка матриалов к вебинару «Литературное программирование».</t>
+          <t>Обработка фотографического материала. Набивка баз данных. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.  Подготовка матриалов к вебинару «Литературное программирование». Подготовка годового отчета по НИР.</t>
         </is>
       </c>
     </row>

--- a/Отчеты в заповедник/Reports_Generator/Topics for reports.xlsx
+++ b/Отчеты в заповедник/Reports_Generator/Topics for reports.xlsx
@@ -555,7 +555,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>45276.37570601852</v>
+        <v>45300.37570601852</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -566,6 +566,9 @@
     <row r="16">
       <c r="A16">
         <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45310.3155324074</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>

--- a/Отчеты в заповедник/Reports_Generator/Topics for reports.xlsx
+++ b/Отчеты в заповедник/Reports_Generator/Topics for reports.xlsx
@@ -580,6 +580,9 @@
       <c r="A17">
         <v>15</v>
       </c>
+      <c r="B17" s="2">
+        <v>45339.50150462963</v>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>Набивка баз данных. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга. Работа над публикацией.</t>

--- a/Отчеты в заповедник/Reports_Generator/Topics for reports.xlsx
+++ b/Отчеты в заповедник/Reports_Generator/Topics for reports.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,7 +386,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45162</v>
+        <v>45528</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -399,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45170.36462962963</v>
+        <v>45536.36462962963</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>45177.42910879629</v>
+        <v>45543.42910879629</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -425,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>45185.1547337963</v>
+        <v>45551.1547337963</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45193.71005787037</v>
+        <v>45559.71005787037</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -451,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>45200.8380787037</v>
+        <v>45566.8380787037</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -464,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>45208.68638888889</v>
+        <v>45574.68638888889</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>45253.64645833333</v>
+        <v>45619.64645833333</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>45237.31696759259</v>
+        <v>45603.31696759259</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>45243.46608796297</v>
+        <v>45609.46608796297</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>45250.25143518519</v>
+        <v>45616.25143518519</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>45261.5518287037</v>
+        <v>45627.5518287037</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>45270.15739583333</v>
+        <v>45636.15739583333</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>45300.37570601852</v>
+        <v>45666.37570601852</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>45310.3155324074</v>
+        <v>45676.3155324074</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -581,11 +581,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>45339.50150462963</v>
+        <v>45719.32527746838</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Набивка баз данных. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга. Работа над публикацией.</t>
+          <t>Обработка фотографического материала.Набивка баз данных. Подготовка данных к наприсанию шодав Летописи природы. Консультации по исследовательским проектам учащихся Кандалакши и Санкт-Петербурга. Работа над публикацией.</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Набивка баз данных. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.Работа над публикацией.</t>
+          <t>Подготовка картографического материала. Проверка данных в базах. Написание глав Летописи природы Подготовка статей к публикациям.</t>
         </is>
       </c>
     </row>
@@ -605,235 +605,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Проверка данных в базах. Подготовка статей к публикациям.</t>
+          <t>Проверка данных в базах. Написание глав Летописи природы Подготовка статей к публикациям.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Проверка данных в базах. Подготовка статей к публикациям.</t>
+          <t>Подготовка к полевому сезону. Написание глав Летописи природы.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C21" t="inlineStr">
-        <is>
-          <t>Проверка данных в базах. Подготовка статей к публикациям.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Подготовка статей к публикациям.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Подготовка статей к публикациям.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Подготовка статей к публикациям.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Подготовка глав Летописи природы. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Подготовка глав Летописи природы.Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Подготовка глав Летописи природы.Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Подготовка глав Летописи природы.Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Подготовка глав Летописи природы.Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Подготовка глав Летописи природы.Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Подготовка глав Летописи природы.Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Подготовка глав Летописи природы.Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Подготовка глав Летописи природы. Консультации по исследовательским проектам учащихся Кандалакши, Москвы и Санкт-Петербурга.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Подготовка к полевому сезону. Написание глав Летописи природы.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Подготовка к полевому сезону. Написание глав Летописи природы.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Подготовка к полевому сезону. Написание глав Летописи природы.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Подготовка к полевому сезону. Написание глав Летописи природы.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Редактирование глав Летописи природы.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Редактирование глав Летописи природы.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Редактирование глав Летописи природы.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Редактирование глав Летописи природы.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>Редактирование глав Летописи природы.</t>
         </is>
